--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436162.7483735878</v>
+        <v>484485.6105790663</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12382612.22781478</v>
+        <v>12289140.99995638</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7773756.274429792</v>
+        <v>8372755.536366509</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9089439.735357989</v>
+        <v>8828211.364300221</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>138.3901879163539</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>165.1725371760945</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>157.1187419577134</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>106.31859599714</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32.071591919214</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>165.1725371760945</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>138.3901879163539</v>
       </c>
       <c r="V4" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>56.56995359489716</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G5" t="n">
-        <v>239.8079481415048</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>165.1725371760942</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183512</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>83.48255223149054</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W6" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>179.9896253540982</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001187</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W7" t="n">
-        <v>239.8079481415048</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X7" t="n">
-        <v>132.9267687173781</v>
+        <v>32.35016756540378</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>153.8072380324128</v>
       </c>
       <c r="T8" t="n">
-        <v>116.9725659584294</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>61.72526863633249</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>116.3937254205877</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="10">
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R10" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>145.2741167436029</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W10" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>29.0070853915579</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="11">
@@ -1375,16 +1375,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>339.1326068324325</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>68.27830251134969</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.809203086807</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>22.6166373431129</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
         <v>104.7965952039006</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>191.9165980458619</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>87.9953534013115</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>364.1046909915908</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>69.31185905877281</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>37.26059381921048</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>114.4670905662827</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>323.8487109263032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>38.20969874013206</v>
+        <v>214.8881356773175</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>59.02191737705591</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734084892</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>145.4791005116679</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>133.909521928802</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>160.1455888558306</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>16.33302702637955</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2493,7 +2493,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>80.00124118081825</v>
+        <v>1.434240791963848</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>206.1807275362172</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>351.6130174899185</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>69.9696990078336</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>171.7647334826869</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>280.7324724857401</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.8517409876632</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>224.7562560951392</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>172.6255381703885</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>170.1676215933851</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>102.8968166294729</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>24.56659018385225</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>78.14223821376326</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>75.41382370362365</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>162.6159201417012</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>19.22154592324214</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>51.56887637424925</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,7 +3483,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>204.6892047803798</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>176.8030671570845</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.6878961026938</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>130.70108330683</v>
       </c>
     </row>
     <row r="41">
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2129851421122</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>50.43805308696707</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>20.37870693812289</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>17.35112070699578</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>18.26879610204004</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491563</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>52.78571257950537</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>139.5792431012689</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>267.8232065737888</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>402.7560998290628</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>516.8341434361913</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="W2" t="n">
-        <v>583.2614020227597</v>
+        <v>469.7691678735674</v>
       </c>
       <c r="X2" t="n">
-        <v>393.841617006275</v>
+        <v>311.0633679162811</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.4218319897903</v>
+        <v>152.3575679589948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>51.41474465792135</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>149.9695119216956</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>284.3351449627284</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>436.6656814086848</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>553.7985668721251</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>628.4749678308535</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>596.0794204377082</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>596.0794204377082</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>596.0794204377082</v>
       </c>
       <c r="U3" t="n">
-        <v>393.841617006275</v>
+        <v>437.3736204804219</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897903</v>
+        <v>278.6678205231357</v>
       </c>
       <c r="W3" t="n">
-        <v>15.00204697330559</v>
+        <v>119.9620205658494</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>119.9620205658494</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>119.9620205658494</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>96.2679578032585</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>251.8155123413948</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>355.2282786210028</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638718</v>
+        <v>368.100488143329</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652795</v>
+        <v>521.0882178492861</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>469.7691678735674</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652795</v>
+        <v>311.0633679162811</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652795</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="V4" t="n">
-        <v>583.2614020227597</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="W4" t="n">
-        <v>393.841617006275</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="X4" t="n">
-        <v>204.4218319897903</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>12.56949935661707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>318.5562537668779</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C5" t="n">
-        <v>318.5562537668779</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D5" t="n">
-        <v>318.5562537668779</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E5" t="n">
-        <v>261.414886499305</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F5" t="n">
-        <v>261.414886499305</v>
+        <v>204.42183198979</v>
       </c>
       <c r="G5" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H5" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I5" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>40.4188858447036</v>
+        <v>21.03371160678483</v>
       </c>
       <c r="K5" t="n">
-        <v>122.9820404192958</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>262.3106962605485</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M5" t="n">
-        <v>449.0101090859559</v>
+        <v>347.1218190644751</v>
       </c>
       <c r="N5" t="n">
-        <v>643.3443219779381</v>
+        <v>509.4952041123822</v>
       </c>
       <c r="O5" t="n">
-        <v>813.5133472948974</v>
+        <v>649.4845259985574</v>
       </c>
       <c r="P5" t="n">
-        <v>924.2476725444239</v>
+        <v>734.4611726020255</v>
       </c>
       <c r="Q5" t="n">
-        <v>959.231792566019</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="R5" t="n">
-        <v>959.2317925660191</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="S5" t="n">
-        <v>803.0167550628471</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="T5" t="n">
-        <v>803.0167550628471</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="U5" t="n">
-        <v>803.0167550628471</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="V5" t="n">
-        <v>560.7865044148625</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="W5" t="n">
-        <v>318.5562537668779</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="X5" t="n">
-        <v>318.5562537668779</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="Y5" t="n">
-        <v>318.5562537668779</v>
+        <v>583.2614020227591</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.18463585132038</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C6" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D6" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E6" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F6" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G6" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H6" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I6" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J6" t="n">
-        <v>85.3014154816628</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K6" t="n">
-        <v>152.9092351450197</v>
+        <v>67.13418877024198</v>
       </c>
       <c r="L6" t="n">
-        <v>290.1388331607136</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>469.6361695153183</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N6" t="n">
-        <v>668.2929111679829</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O6" t="n">
-        <v>827.8052238367434</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P6" t="n">
-        <v>936.4948513640421</v>
+        <v>739.5989987017051</v>
       </c>
       <c r="Q6" t="n">
-        <v>959.2317925660191</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="R6" t="n">
-        <v>938.1198929682058</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="S6" t="n">
-        <v>788.6531038308406</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="T6" t="n">
-        <v>704.3272934960016</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="U6" t="n">
-        <v>704.3272934960016</v>
+        <v>560.682563648794</v>
       </c>
       <c r="V6" t="n">
-        <v>469.175185264259</v>
+        <v>371.2627786323096</v>
       </c>
       <c r="W6" t="n">
-        <v>226.9449346162743</v>
+        <v>371.2627786323096</v>
       </c>
       <c r="X6" t="n">
-        <v>226.9449346162743</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.18463585132038</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>120.2325654469302</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>305.0655603477485</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M7" t="n">
-        <v>510.3351610669864</v>
+        <v>373.5399563830969</v>
       </c>
       <c r="N7" t="n">
-        <v>716.1585259030905</v>
+        <v>559.1902876777533</v>
       </c>
       <c r="O7" t="n">
-        <v>890.2534212916894</v>
+        <v>721.9284911143034</v>
       </c>
       <c r="P7" t="n">
-        <v>959.2317925660191</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="Q7" t="n">
-        <v>959.2317925660191</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="R7" t="n">
-        <v>828.7538312854217</v>
+        <v>615.9383389575103</v>
       </c>
       <c r="S7" t="n">
-        <v>621.3135465378271</v>
+        <v>426.5185539410258</v>
       </c>
       <c r="T7" t="n">
-        <v>395.684349850192</v>
+        <v>426.5185539410258</v>
       </c>
       <c r="U7" t="n">
-        <v>395.684349850192</v>
+        <v>426.5185539410258</v>
       </c>
       <c r="V7" t="n">
-        <v>395.684349850192</v>
+        <v>237.0987689245413</v>
       </c>
       <c r="W7" t="n">
-        <v>153.4540992022074</v>
+        <v>47.67898390805686</v>
       </c>
       <c r="X7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>403.9460998429521</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="C8" t="n">
-        <v>403.9460998429521</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D8" t="n">
-        <v>403.9460998429521</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E8" t="n">
-        <v>403.9460998429521</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F8" t="n">
-        <v>403.9460998429521</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G8" t="n">
-        <v>137.5684432757741</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H8" t="n">
-        <v>137.5684432757741</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I8" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515905</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030603</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S8" t="n">
-        <v>1054.855520006025</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="T8" t="n">
-        <v>936.701412977308</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="U8" t="n">
-        <v>936.701412977308</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="V8" t="n">
-        <v>670.32375641013</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="W8" t="n">
-        <v>403.9460998429521</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="X8" t="n">
-        <v>403.9460998429521</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="Y8" t="n">
-        <v>403.9460998429521</v>
+        <v>583.2614020227591</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>378.9148342328024</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="C9" t="n">
-        <v>378.9148342328024</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="D9" t="n">
-        <v>229.9804245715512</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E9" t="n">
-        <v>229.9804245715512</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F9" t="n">
-        <v>83.44586659843614</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G9" t="n">
-        <v>21.09711040012049</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H9" t="n">
-        <v>21.09711040012049</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J9" t="n">
-        <v>117.4455628004801</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K9" t="n">
-        <v>192.1295835699343</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L9" t="n">
-        <v>338.874007230231</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140238</v>
       </c>
       <c r="N9" t="n">
-        <v>739.5286634293598</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O9" t="n">
-        <v>909.4672107560896</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P9" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R9" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S9" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T9" t="n">
-        <v>1036.519636212815</v>
+        <v>632.5329290485233</v>
       </c>
       <c r="U9" t="n">
-        <v>1036.519636212815</v>
+        <v>443.1131440320388</v>
       </c>
       <c r="V9" t="n">
-        <v>801.367527981072</v>
+        <v>443.1131440320388</v>
       </c>
       <c r="W9" t="n">
-        <v>547.1301712528705</v>
+        <v>443.1131440320388</v>
       </c>
       <c r="X9" t="n">
-        <v>547.1301712528705</v>
+        <v>253.6933590155543</v>
       </c>
       <c r="Y9" t="n">
-        <v>547.1301712528705</v>
+        <v>64.27357399906981</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287947</v>
+        <v>43.17590452428067</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551009</v>
+        <v>216.0634826394156</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375335</v>
+        <v>401.713813934072</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227045</v>
+        <v>587.3641452287285</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075542</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R10" t="n">
-        <v>926.0629918407075</v>
+        <v>612.561488276858</v>
       </c>
       <c r="S10" t="n">
-        <v>779.3214597764621</v>
+        <v>612.561488276858</v>
       </c>
       <c r="T10" t="n">
-        <v>553.8524235344764</v>
+        <v>612.561488276858</v>
       </c>
       <c r="U10" t="n">
-        <v>287.4747669672984</v>
+        <v>612.561488276858</v>
       </c>
       <c r="V10" t="n">
-        <v>287.4747669672984</v>
+        <v>423.1417032603734</v>
       </c>
       <c r="W10" t="n">
-        <v>21.09711040012049</v>
+        <v>233.721918243889</v>
       </c>
       <c r="X10" t="n">
-        <v>21.09711040012049</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1189.460906904773</v>
+        <v>835.9140537841261</v>
       </c>
       <c r="C11" t="n">
-        <v>820.4983899643612</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="D11" t="n">
-        <v>462.2326913576107</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E11" t="n">
-        <v>462.2326913576107</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F11" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
         <v>1656.671415230817</v>
@@ -5068,25 +5068,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U11" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V11" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W11" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X11" t="n">
-        <v>1966.200078944706</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y11" t="n">
-        <v>1576.060746968895</v>
+        <v>1222.513893848248</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G12" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K12" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L12" t="n">
-        <v>854.8429682049859</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M12" t="n">
         <v>1218.104987164206</v>
@@ -5135,13 +5135,13 @@
         <v>1605.390115761151</v>
       </c>
       <c r="O12" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R12" t="n">
         <v>2562.339328400155</v>
@@ -5153,7 +5153,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
@@ -5162,7 +5162,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>937.5665200750353</v>
+        <v>643.5623317901019</v>
       </c>
       <c r="C13" t="n">
-        <v>768.6303371471284</v>
+        <v>643.5623317901019</v>
       </c>
       <c r="D13" t="n">
-        <v>768.6303371471284</v>
+        <v>643.5623317901019</v>
       </c>
       <c r="E13" t="n">
         <v>620.7172435647353</v>
@@ -5193,58 +5193,58 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J13" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1340.007564048805</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.007564048805</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U13" t="n">
-        <v>1340.007564048805</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V13" t="n">
-        <v>1340.007564048805</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W13" t="n">
-        <v>1340.007564048805</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.007564048805</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y13" t="n">
-        <v>1119.214984905275</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>884.1849331278579</v>
+        <v>1468.322398715839</v>
       </c>
       <c r="C14" t="n">
-        <v>884.1849331278579</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="D14" t="n">
-        <v>525.9192345211075</v>
+        <v>741.0941831686771</v>
       </c>
       <c r="E14" t="n">
-        <v>140.1309819228632</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F14" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H14" t="n">
         <v>51.24678656800311</v>
@@ -5278,25 +5278,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q14" t="n">
         <v>2542.25058172385</v>
@@ -5305,25 +5305,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U14" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V14" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W14" t="n">
-        <v>1644.250531453059</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X14" t="n">
-        <v>1270.78477319198</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y14" t="n">
-        <v>1270.78477319198</v>
+        <v>1468.322398715839</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D15" t="n">
         <v>607.9167021542605</v>
@@ -5345,37 +5345,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F15" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I15" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L15" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M15" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N15" t="n">
-        <v>1357.685180822783</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O15" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P15" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q15" t="n">
         <v>2562.339328400155</v>
@@ -5396,7 +5396,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
         <v>1307.279776881661</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>689.90341785788</v>
+        <v>833.9149192343714</v>
       </c>
       <c r="C16" t="n">
-        <v>689.90341785788</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="D16" t="n">
-        <v>689.90341785788</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E16" t="n">
-        <v>541.9903242754868</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F16" t="n">
-        <v>395.1003767775765</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G16" t="n">
-        <v>227.113912085855</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I16" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K16" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
         <v>1636.446120074497</v>
@@ -5475,13 +5475,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W16" t="n">
-        <v>1092.34446183165</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X16" t="n">
-        <v>1092.34446183165</v>
+        <v>1054.707498377901</v>
       </c>
       <c r="Y16" t="n">
-        <v>871.5518826881197</v>
+        <v>833.9149192343714</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883006</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.075344883006</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W17" t="n">
-        <v>2719.306689612892</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="X17" t="n">
-        <v>2719.306689612892</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>1990.953909778728</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>529.0179941377679</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C19" t="n">
-        <v>529.0179941377679</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915318</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484844</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610487</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046005</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W19" t="n">
-        <v>970.0546934046005</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4590381115378</v>
+        <v>906.9917463258904</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.6664589680076</v>
+        <v>686.1991671823603</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1189.460906904773</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528559</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389512</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839476</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136265</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V20" t="n">
-        <v>3215.315153136265</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W20" t="n">
-        <v>3215.315153136265</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X20" t="n">
-        <v>3121.906610713899</v>
+        <v>1249.079005265435</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>1189.460906904773</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>496.5773008749131</v>
+        <v>829.921061643357</v>
       </c>
       <c r="C22" t="n">
-        <v>496.5773008749131</v>
+        <v>660.9848787154501</v>
       </c>
       <c r="D22" t="n">
-        <v>496.5773008749131</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E22" t="n">
-        <v>348.66420729252</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F22" t="n">
-        <v>201.7742597946097</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M22" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783661</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V22" t="n">
-        <v>1416.425065783661</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W22" t="n">
-        <v>1127.0078957467</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X22" t="n">
-        <v>899.018344848683</v>
+        <v>829.921061643357</v>
       </c>
       <c r="Y22" t="n">
-        <v>678.2257657051529</v>
+        <v>829.921061643357</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1252.833343223196</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C23" t="n">
-        <v>883.8708262827843</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D23" t="n">
-        <v>883.8708262827843</v>
+        <v>953.6440892486874</v>
       </c>
       <c r="E23" t="n">
-        <v>498.08257368454</v>
+        <v>567.8558366504431</v>
       </c>
       <c r="F23" t="n">
-        <v>498.08257368454</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>83.01012352953649</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>83.01012352953649</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1639.433183287318</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V25" t="n">
-        <v>1705.527932658019</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W25" t="n">
-        <v>1624.71859813194</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X25" t="n">
-        <v>1396.729047233923</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y25" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1477.112184968822</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C26" t="n">
-        <v>1108.149668028411</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D26" t="n">
-        <v>749.8839694216604</v>
+        <v>958.1473305693546</v>
       </c>
       <c r="E26" t="n">
-        <v>364.0957168234162</v>
+        <v>572.3590779711103</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>572.3590779711103</v>
       </c>
       <c r="G26" t="n">
         <v>364.0957168234162</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2609.016021139987</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2253.851357008756</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y26" t="n">
-        <v>1863.712025032944</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="F28" t="n">
         <v>234.2149530574644</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W28" t="n">
-        <v>1424.011591242373</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.51186045178</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1878.169188758593</v>
+        <v>2295.336172843073</v>
       </c>
       <c r="C29" t="n">
-        <v>1509.206671818182</v>
+        <v>1926.373655902661</v>
       </c>
       <c r="D29" t="n">
-        <v>1150.940973211431</v>
+        <v>1568.107957295911</v>
       </c>
       <c r="E29" t="n">
-        <v>765.1527206131871</v>
+        <v>1182.319704697666</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>771.3337999080588</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>356.2613497530553</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6463,7 +6463,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6496,19 +6496,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265599</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995485</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734405</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.169188758593</v>
+        <v>2681.936012907195</v>
       </c>
     </row>
     <row r="30">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>848.0708164780106</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C31" t="n">
-        <v>679.1346335501037</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D31" t="n">
         <v>529.0179941377679</v>
@@ -6654,19 +6654,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1478.501411349798</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1478.501411349798</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>1478.501411349798</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.51186045178</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.71928130825</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1934.208022973022</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
@@ -6700,7 +6700,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6739,13 +6739,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2320.807863037144</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2320.807863037144</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2320.807863037144</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>822.2981376367188</v>
+        <v>759.2995336040055</v>
       </c>
       <c r="C34" t="n">
-        <v>653.3619547088119</v>
+        <v>590.3633506760987</v>
       </c>
       <c r="D34" t="n">
-        <v>503.2453152964762</v>
+        <v>440.2467112637629</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4305777370295</v>
+        <v>292.3336176813698</v>
       </c>
       <c r="F34" t="n">
-        <v>331.5406302391191</v>
+        <v>145.4436701834594</v>
       </c>
       <c r="G34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1224.739181610489</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>1224.739181610489</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X34" t="n">
-        <v>1224.739181610489</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.946602466959</v>
+        <v>940.9479984342453</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1648.004869410821</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C35" t="n">
-        <v>1279.042352470409</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>1202.866772971799</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>817.078520373555</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.744041450754</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X35" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y35" t="n">
-        <v>2034.604709474942</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>362.8175152271517</v>
+        <v>717.3698800184446</v>
       </c>
       <c r="C37" t="n">
-        <v>362.8175152271517</v>
+        <v>548.4336970905377</v>
       </c>
       <c r="D37" t="n">
-        <v>362.8175152271517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>362.8175152271517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>215.9275677292414</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>215.9275677292414</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X37" t="n">
-        <v>362.8175152271517</v>
+        <v>899.0183448486844</v>
       </c>
       <c r="Y37" t="n">
-        <v>362.8175152271517</v>
+        <v>899.0183448486844</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1892.184635123826</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C38" t="n">
-        <v>1523.222118183415</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D38" t="n">
-        <v>1164.956419576664</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3008.558380630832</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2655.789725360718</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2282.323967099638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1892.184635123826</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7256,13 +7256,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N39" t="n">
         <v>1685.951113992584</v>
@@ -7271,34 +7271,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.4780323548192</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>364.5418494269123</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X40" t="n">
-        <v>680.6375233676413</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y40" t="n">
-        <v>680.6375233676413</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7414,13 +7414,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>234.2149530574645</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574645</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574645</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1516.201608216216</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1227.09874134186</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>972.4142531359726</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W43" t="n">
-        <v>682.9970830990119</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X43" t="n">
-        <v>455.0075322009945</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y43" t="n">
-        <v>234.2149530574645</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>498.0825736845414</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>87.09666889493383</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>87.09666889493383</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>87.09666889493383</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7660,13 +7660,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>84.96544582818348</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218343</v>
@@ -7809,16 +7809,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.8553933260938</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>49.27157002399059</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>155.3190545659416</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>99.26862669272381</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>98.8606518859406</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>73.0178310711632</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,25 +8376,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>77.96696197637856</v>
+        <v>46.56605103777582</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.89011047839806</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>99.37288961069065</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471051</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>265.0304328515145</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>240.4465442417438</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,10 +9017,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.25823202432855</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>244.3436537471266</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>21.12316271950942</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>184.0684315413185</v>
+        <v>192.1222267596996</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>212.6123587207556</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>229.1191966983402</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>60.21458765272735</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>51.64041629783932</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U3" t="n">
-        <v>60.69123123399646</v>
+        <v>68.75049448653482</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>75.68184519171186</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>94.57624120320619</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>28.36014035361792</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>9.177839155320683</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>50.87584769224893</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>66.89865553426415</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>147.8786943090352</v>
       </c>
       <c r="V4" t="n">
-        <v>86.96510614773348</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027114</v>
+        <v>129.4042563788776</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>195.208254497161</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>325.3604164773647</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G5" t="n">
-        <v>173.108955804432</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>87.94431032863014</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>109.4330205759082</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>221.0654014799594</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958668</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>111.5368506500227</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>38.33818124377132</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.27499998310566</v>
       </c>
       <c r="W6" t="n">
-        <v>11.88703501941484</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>25.78335984937928</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176901</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>19.25466862917662</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750839</v>
       </c>
       <c r="W7" t="n">
-        <v>46.71505019508623</v>
+        <v>98.99741117027139</v>
       </c>
       <c r="X7" t="n">
-        <v>92.78288667165904</v>
+        <v>193.3594878236334</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>149.1202946442039</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>4.968575157640373</v>
       </c>
       <c r="T8" t="n">
-        <v>95.31714964479384</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>74.29745095009096</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>79.01587237141358</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098472</v>
       </c>
     </row>
     <row r="10">
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>59.44504749999086</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W10" t="n">
-        <v>22.80911833508486</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>196.7025699974793</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577515</v>
       </c>
     </row>
     <row r="11">
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>30.59849384603655</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>317.9596361447039</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.8173253034563</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>2.745862315875598</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
         <v>220.7486959972119</v>
@@ -23475,13 +23475,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.8806923403999</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>65.70991267247049</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>22.13324766446277</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>77.93965009635603</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>188.4490615698267</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>234.7738781511303</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>62.38922772975036</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>187.4999566489051</v>
+        <v>10.82151971171962</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>327.2160212789977</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>3.13637250654449</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>32.11628633022625</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>246.7304568858808</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>25.2439027465464</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>206.5217571557727</v>
+        <v>285.0887575446271</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>204.7409981172363</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>18.11808318855049</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>75.45134901509765</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94492190635026</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>126.1435732559713</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>7.756023399657295</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24736,16 +24736,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>61.45558211047373</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>45.95911518170627</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>195.1052701776224</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>246.3441520879401</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>121.8673724627169</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>87.88357004526496</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>279.2692179170593</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>165.1363383284337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>129.3939270949702</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>93.18613854007154</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>123.0630536897551</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>209.4348714989691</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.14408407924347</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>87.8835700452648</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>2.335964134057008</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>201.6995902368609</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>21.19822283480303</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>331.8898480104172</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>147.7570121569882</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>105.0742887270129</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477528.1415360585</v>
+        <v>452742.7025022788</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>521612.595984228</v>
+        <v>477528.1415360582</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>541049.5068423846</v>
+        <v>477528.1415360582</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893911.7849045417</v>
+        <v>809975.8798666354</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893911.7849045418</v>
+        <v>809975.8798666353</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893911.7849045419</v>
+        <v>893911.7849045418</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893911.784904542</v>
+        <v>893911.7849045419</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893911.7849045418</v>
+        <v>893911.7849045419</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893911.784904542</v>
+        <v>893911.7849045419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162397.4547967403</v>
+        <v>153464.0580743207</v>
       </c>
       <c r="C2" t="n">
-        <v>177065.6136843684</v>
+        <v>162397.4547967402</v>
       </c>
       <c r="D2" t="n">
-        <v>183569.9230774012</v>
+        <v>162397.4547967402</v>
       </c>
       <c r="E2" t="n">
         <v>275374.4674448774</v>
@@ -26328,31 +26328,31 @@
         <v>275374.4674448775</v>
       </c>
       <c r="G2" t="n">
-        <v>306897.3890738287</v>
+        <v>275374.4674448775</v>
       </c>
       <c r="H2" t="n">
+        <v>275374.4674448776</v>
+      </c>
+      <c r="I2" t="n">
         <v>306897.3890738286</v>
       </c>
-      <c r="I2" t="n">
-        <v>306897.3890738288</v>
-      </c>
       <c r="J2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738285</v>
       </c>
       <c r="K2" t="n">
         <v>306897.3890738288</v>
       </c>
       <c r="L2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="M2" t="n">
         <v>306897.3890738286</v>
       </c>
       <c r="N2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="O2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="P2" t="n">
         <v>306897.3890738288</v>
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>543932.1164916839</v>
       </c>
       <c r="C3" t="n">
-        <v>57873.5970108224</v>
+        <v>45009.92707471272</v>
       </c>
       <c r="D3" t="n">
-        <v>25049.96918112271</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369622.271430143</v>
+        <v>445061.6638164773</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341904</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>167954.0554034779</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>41109.1761207839</v>
       </c>
       <c r="K3" t="n">
-        <v>13455.80667946139</v>
+        <v>7825.74893764856</v>
       </c>
       <c r="L3" t="n">
-        <v>6050.376200379608</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>93917.74874676284</v>
+        <v>112904.1760744625</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431062</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8542.551886960247</v>
+        <v>9538.33604272119</v>
       </c>
       <c r="C4" t="n">
-        <v>10297.66183273948</v>
+        <v>8542.551886960246</v>
       </c>
       <c r="D4" t="n">
-        <v>10965.07562050203</v>
+        <v>8542.551886960246</v>
       </c>
       <c r="E4" t="n">
         <v>14971.45584523218</v>
       </c>
       <c r="F4" t="n">
-        <v>14971.45584523219</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="G4" t="n">
-        <v>7940.571207054571</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="H4" t="n">
-        <v>7940.57120705457</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="I4" t="n">
         <v>7940.571207054552</v>
@@ -26459,7 +26459,7 @@
         <v>7940.571207054552</v>
       </c>
       <c r="P4" t="n">
-        <v>7940.571207054552</v>
+        <v>7940.571207054541</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>54294.69533421406</v>
       </c>
       <c r="C5" t="n">
-        <v>61145.7022343733</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="D5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26502,7 +26502,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-505991.7634472449</v>
+        <v>-455501.1161185463</v>
       </c>
       <c r="C6" t="n">
-        <v>37059.58689784662</v>
+        <v>50708.77908099711</v>
       </c>
       <c r="D6" t="n">
-        <v>74179.35988475874</v>
+        <v>95718.70615570981</v>
       </c>
       <c r="E6" t="n">
-        <v>-173756.8949922342</v>
+        <v>-244491.570928866</v>
       </c>
       <c r="F6" t="n">
-        <v>195865.376437909</v>
+        <v>200570.0928876114</v>
       </c>
       <c r="G6" t="n">
-        <v>47810.40697312944</v>
+        <v>200570.0928876114</v>
       </c>
       <c r="H6" t="n">
-        <v>221174.2880073198</v>
+        <v>200570.0928876116</v>
       </c>
       <c r="I6" t="n">
-        <v>221174.2880073195</v>
+        <v>56348.80297209682</v>
       </c>
       <c r="J6" t="n">
-        <v>172109.3432787752</v>
+        <v>183193.6822547907</v>
       </c>
       <c r="K6" t="n">
-        <v>207718.4813278585</v>
+        <v>216477.1094379263</v>
       </c>
       <c r="L6" t="n">
-        <v>215123.9118069402</v>
+        <v>224302.8583755746</v>
       </c>
       <c r="M6" t="n">
-        <v>127256.5392605569</v>
+        <v>111398.6823011122</v>
       </c>
       <c r="N6" t="n">
-        <v>221174.2880073198</v>
+        <v>224302.8583755747</v>
       </c>
       <c r="O6" t="n">
-        <v>175254.0767930092</v>
+        <v>224302.8583755748</v>
       </c>
       <c r="P6" t="n">
-        <v>221174.2880073199</v>
+        <v>224302.8583755746</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>509.8291662011504</v>
       </c>
       <c r="C3" t="n">
-        <v>593.4761003380648</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="D3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="F3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="G3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="H3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="C4" t="n">
-        <v>239.8079481415048</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26822,10 +26822,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>509.8291662011504</v>
       </c>
       <c r="C3" t="n">
-        <v>45.00615942516026</v>
+        <v>38.64077471175386</v>
       </c>
       <c r="D3" t="n">
-        <v>20.57891343141341</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320.0098783480611</v>
+        <v>385.5949512046349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155.7118084757586</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="C4" t="n">
-        <v>52.2823609751849</v>
+        <v>30.4068452086062</v>
       </c>
       <c r="D4" t="n">
-        <v>23.90593186000137</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8709520985327</v>
+        <v>453.0592449337191</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>157.1187419577132</v>
       </c>
       <c r="K4" t="n">
-        <v>52.2823609751849</v>
+        <v>30.4068452086062</v>
       </c>
       <c r="L4" t="n">
-        <v>23.90593186000137</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985331</v>
+        <v>453.0592449337191</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="K4" t="n">
-        <v>52.2823609751849</v>
+        <v>30.4068452086062</v>
       </c>
       <c r="L4" t="n">
-        <v>23.90593186000137</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985327</v>
+        <v>453.0592449337191</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.01583489435117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>173.9542238989544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>345.3285584995943</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>294.7299352208369</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.70445075299987</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>8.971968542896624</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>103.605944048481</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>285.2109408166228</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>260.9122903671114</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.08624223342913</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.36911810247048</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9193640701987956</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.173982369585662</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>64.99903976305485</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>136.6843636730101</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.3379517382113</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.02200838700992</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05014713110175255</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.385833569198249</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055157</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651557</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>303.486976877902</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>376.502430971253</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074823</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>425.7102483359669</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822518</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>343.08584954267</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457576</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411496</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810515</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182839</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070428</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512821</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842453</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900652</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947076</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671573</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080801</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308315</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207013</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784129</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490376</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
-        <v>124.338107579024</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889953</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676926</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>163.770216344109</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104779</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937816</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
-        <v>18.6507161368536</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522793</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658379</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990948</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480712</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31834,10 +31834,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31846,34 +31846,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31931,10 +31931,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31943,16 +31943,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I14" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
         <v>0.3004027793744847</v>
@@ -32071,10 +32071,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
@@ -32083,7 +32083,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
         <v>509.0653662040588</v>
@@ -32092,25 +32092,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P15" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32168,10 +32168,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
         <v>203.7180217169137</v>
@@ -32183,13 +32183,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>115.2303470779076</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>112.7685094895579</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>39.23762151646889</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>99.5502699634084</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>153.8692287332895</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>84.54389742084993</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>104.4573396763718</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>13.00223184073351</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2010091933411</v>
+        <v>154.5330603090477</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>108.471464627846</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705378</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292146</v>
+        <v>60.38224240788345</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012657</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802096</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>196.297184739376</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>171.887904360565</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874004</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130808</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>66.78462588923477</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268378</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>138.6157555714079</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>181.310440762227</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>200.6633754067319</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502632</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>109.787502552827</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472414</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493114</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295332</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233376</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P7" t="n">
-        <v>69.67512249932291</v>
+        <v>28.45844197068189</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441512</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>148.2266905659562</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>118.240000033741</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.61687799649638</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>28.45844197068192</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K12" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N12" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>600.4551148476376</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>490.1260733652761</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M13" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P13" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
-        <v>405.4553316172024</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
         <v>278.0112915831069</v>
@@ -35816,7 +35816,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
         <v>262.6644876295069</v>
@@ -35825,7 +35825,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
